--- a/assets/subenlaces.xlsx
+++ b/assets/subenlaces.xlsx
@@ -23,375 +23,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>SUB ENLACE</t>
   </si>
   <si>
+    <t>FINADO</t>
+  </si>
+  <si>
     <t>INDEFINIDO</t>
   </si>
   <si>
+    <t>BOTELLO</t>
+  </si>
+  <si>
+    <t>SIN ENLACE</t>
+  </si>
+  <si>
+    <t>IGNACIO CASTELLANO</t>
+  </si>
+  <si>
+    <t>NIDIA</t>
+  </si>
+  <si>
+    <t>BALTA</t>
+  </si>
+  <si>
+    <t>VICTOR SALAZAR</t>
+  </si>
+  <si>
+    <t>JAVIER/GERARDO</t>
+  </si>
+  <si>
+    <t>EDUARDO CAMPOS ESPINOZA</t>
+  </si>
+  <si>
+    <t>GATICA</t>
+  </si>
+  <si>
+    <t>IMELDA</t>
+  </si>
+  <si>
+    <t>CORREDOR</t>
+  </si>
+  <si>
+    <t>GERARDO MONTEMAYOR</t>
+  </si>
+  <si>
+    <t>CABALLERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIAN GONZALEZ </t>
+  </si>
+  <si>
+    <t>RENE VILLARREAL</t>
+  </si>
+  <si>
+    <t>YULI</t>
+  </si>
+  <si>
+    <t>LIDIA</t>
+  </si>
+  <si>
+    <t>JHONY</t>
+  </si>
+  <si>
+    <t>CHARLY</t>
+  </si>
+  <si>
+    <t>THELMA</t>
+  </si>
+  <si>
+    <t>RAUL LUNA</t>
+  </si>
+  <si>
+    <t>JORGE SANTOS</t>
+  </si>
+  <si>
+    <t>OSCAR BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>SALVADOR PALOMARES</t>
+  </si>
+  <si>
+    <t>POMELO</t>
+  </si>
+  <si>
+    <t>PONCHO</t>
+  </si>
+  <si>
+    <t>ENLACE CADEREYTA 1</t>
+  </si>
+  <si>
+    <t>RUBEN LEAL</t>
+  </si>
+  <si>
+    <t>BALTA JR</t>
+  </si>
+  <si>
+    <t>ISMAEL</t>
+  </si>
+  <si>
+    <t>CHUY LARA</t>
+  </si>
+  <si>
+    <t>JOSE LUIS GUITIERREZ</t>
+  </si>
+  <si>
+    <t>ARTURO GARCIA</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>CHENCO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>CARLOS CHAVEZ</t>
+  </si>
+  <si>
+    <t>RAMON ALVARADO</t>
+  </si>
+  <si>
+    <t>BETY TORRES</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>MARCO MTZ JUVENIL</t>
+  </si>
+  <si>
+    <t>OSCAR RIOS</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>TONY</t>
+  </si>
+  <si>
+    <t>PAYIN</t>
+  </si>
+  <si>
+    <t>CHANO</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>MARIO CHANO</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
+    <t>PALY</t>
+  </si>
+  <si>
+    <t>WEBO</t>
+  </si>
+  <si>
+    <t>GOYO</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>MARIANELA</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
     <t>ITZEL</t>
   </si>
   <si>
-    <t>NUTRISA SAN NICOLAS</t>
-  </si>
-  <si>
-    <t>SIN ENLACE</t>
+    <t>CARLOS (TREVIÑO)</t>
+  </si>
+  <si>
+    <t>SUSY</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>RAFA</t>
+  </si>
+  <si>
+    <t>FELIX</t>
+  </si>
+  <si>
+    <t>MARTELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA VERASTEGUI  </t>
+  </si>
+  <si>
+    <t>VALDEMAR</t>
+  </si>
+  <si>
+    <t>ANGEL BARROSO</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>RAMON AYALA</t>
+  </si>
+  <si>
+    <t>RICARDO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ADRIAN ESCUTIA</t>
+  </si>
+  <si>
+    <t>GREGORIO HURTADO</t>
+  </si>
+  <si>
+    <t>FREDDY</t>
+  </si>
+  <si>
+    <t>LAURA PAULA</t>
+  </si>
+  <si>
+    <t>JORGE OMAR</t>
+  </si>
+  <si>
+    <t>ANGEL VILLARREAL</t>
+  </si>
+  <si>
+    <t>ISRAEL PIÑA</t>
+  </si>
+  <si>
+    <t>OSCAR VILLARREAL</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>MARTHA GONZALEZ</t>
+  </si>
+  <si>
+    <t>DANY KOALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALVADOR  </t>
+  </si>
+  <si>
+    <t>KARLA PARRA</t>
+  </si>
+  <si>
+    <t>OBED</t>
+  </si>
+  <si>
+    <t>CARMEN PEÑA</t>
+  </si>
+  <si>
+    <t>YOLANDA MACIAS</t>
+  </si>
+  <si>
+    <t>ZAMORA</t>
   </si>
   <si>
     <t>MIGUEL ANGEL GARCIA</t>
   </si>
   <si>
-    <t>CARLOS CHAVEZ</t>
-  </si>
-  <si>
-    <t>EDUARDO CAMPOS ESPINOZA</t>
-  </si>
-  <si>
-    <t>FREDDY</t>
+    <t>MARCO ANTONIO MTZ</t>
   </si>
   <si>
     <t>JUAN CARLOS RUIZ</t>
   </si>
   <si>
-    <t>CHUY LARA</t>
+    <t>MYRNA GRIMALDO</t>
   </si>
   <si>
     <t>MAXIMILIANO ROBLEDO</t>
   </si>
   <si>
-    <t>CORREDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALVADOR </t>
-  </si>
-  <si>
-    <t>BETY TORRES</t>
-  </si>
-  <si>
-    <t>FELIX</t>
-  </si>
-  <si>
-    <t>GATICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIAN GONZALEZ </t>
-  </si>
-  <si>
-    <t>ENLACE 1 MARTELL</t>
-  </si>
-  <si>
-    <t>BALTA</t>
-  </si>
-  <si>
-    <t>POMELO</t>
-  </si>
-  <si>
-    <t>ALFREDO MIRANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERICKA </t>
-  </si>
-  <si>
-    <t>VICTOR SALAZAR</t>
-  </si>
-  <si>
-    <t>PONCHO</t>
-  </si>
-  <si>
     <t>CARLOS FABIAN</t>
   </si>
   <si>
-    <t>SUSANA</t>
+    <t>HERNAN SALINAS</t>
+  </si>
+  <si>
+    <t>MARGARITA ARELLANES</t>
+  </si>
+  <si>
+    <t>DIVISIÓN</t>
+  </si>
+  <si>
+    <t>DAVID GONZALEZ</t>
+  </si>
+  <si>
+    <t>MARCOS MENDOZA</t>
+  </si>
+  <si>
+    <t>ELVIN TORRES</t>
+  </si>
+  <si>
+    <t>BUSTILLOS</t>
+  </si>
+  <si>
+    <t>VIRGIA BALTA</t>
+  </si>
+  <si>
+    <t>ROLANDO MONTOYA</t>
+  </si>
+  <si>
+    <t>VIRGINIA GARZA</t>
+  </si>
+  <si>
+    <t>FREDY ZAVALA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIAN VILLARREAL </t>
+  </si>
+  <si>
+    <t>FEDEX</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>FARAH</t>
   </si>
   <si>
     <t>MIRIAM ARROYO</t>
   </si>
   <si>
-    <t>ISRAEL PIÑA</t>
-  </si>
-  <si>
-    <t>ENLACE CADEREYTA 1</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>MARTELL</t>
-  </si>
-  <si>
-    <t>OBED</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO MTZ</t>
-  </si>
-  <si>
-    <t>RAUL LUNA</t>
-  </si>
-  <si>
-    <t>CABALLERO</t>
-  </si>
-  <si>
-    <t>TONY</t>
-  </si>
-  <si>
-    <t>OSCAR VILLARREAL</t>
-  </si>
-  <si>
-    <t>CARMEN PEÑA</t>
-  </si>
-  <si>
-    <t>CHARLY</t>
-  </si>
-  <si>
-    <t>DIVISIÓN</t>
-  </si>
-  <si>
-    <t>THELMA</t>
-  </si>
-  <si>
-    <t>LIDIA</t>
-  </si>
-  <si>
-    <t>PALY</t>
-  </si>
-  <si>
-    <t>DAVID CASTILLO</t>
-  </si>
-  <si>
-    <t>ADRIAN ESCUTIA</t>
-  </si>
-  <si>
-    <t>SALVADOR PALOMARES</t>
+    <t xml:space="preserve">JAVI  </t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>FAUSTINO</t>
+  </si>
+  <si>
+    <t>KARINA MORENO</t>
+  </si>
+  <si>
+    <t>MAURICIO FARAH</t>
   </si>
   <si>
     <t>ADRIAN VILLARREAL</t>
   </si>
   <si>
-    <t>VALDEMAR</t>
-  </si>
-  <si>
-    <t>JAVIER/GERARDO</t>
-  </si>
-  <si>
-    <t>JONY</t>
-  </si>
-  <si>
-    <t>ROLANDO MONTOYA</t>
-  </si>
-  <si>
-    <t>OSCAR BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>KARLA PARRA</t>
-  </si>
-  <si>
-    <t>CARLOS (TREVIÑO)</t>
-  </si>
-  <si>
-    <t>JOSE LUIS GUITIERREZ</t>
-  </si>
-  <si>
-    <t>BOTELLO</t>
-  </si>
-  <si>
-    <t>ISMAEL</t>
-  </si>
-  <si>
     <t>AFRICA</t>
   </si>
   <si>
-    <t>CHANO</t>
-  </si>
-  <si>
-    <t>MARIO CHANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA VERASTEGUI  </t>
-  </si>
-  <si>
-    <t>RUBEN LEAL</t>
-  </si>
-  <si>
-    <t>MARGARITA ARELLANES</t>
-  </si>
-  <si>
-    <t>PAYIN</t>
-  </si>
-  <si>
-    <t>DANY KOALA</t>
-  </si>
-  <si>
-    <t>SULTANA SANTA CATARINA</t>
-  </si>
-  <si>
-    <t>ZAMORA</t>
-  </si>
-  <si>
-    <t>IGNACIO CASTELLANO</t>
-  </si>
-  <si>
-    <t>VIRGINIA GARZA</t>
-  </si>
-  <si>
-    <t>BUSTILLOS</t>
-  </si>
-  <si>
-    <t>JUAN LUNA</t>
-  </si>
-  <si>
-    <t>ARTURO GARCIA</t>
-  </si>
-  <si>
-    <t>GREGORIO HURTADO</t>
-  </si>
-  <si>
-    <t>MARTHA GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNAN SALINAS</t>
-  </si>
-  <si>
-    <t>NUTRISA JUAREZ</t>
-  </si>
-  <si>
-    <t>DAVID GONZALEZ</t>
-  </si>
-  <si>
-    <t>MYRNA GRIMALDO</t>
-  </si>
-  <si>
-    <t>MARCO MTZ JUVENIL</t>
-  </si>
-  <si>
-    <t>RENE VILLARREAL</t>
-  </si>
-  <si>
-    <t>YOLANDA MACIAS</t>
-  </si>
-  <si>
-    <t>YULI</t>
-  </si>
-  <si>
-    <t>MARCOS MENDOZA</t>
-  </si>
-  <si>
-    <t>ELVIN TORRES</t>
-  </si>
-  <si>
-    <t>ANGEL BARROSO</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>RAFA</t>
-  </si>
-  <si>
-    <t>BALTA JR</t>
-  </si>
-  <si>
-    <t>RICARDO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JORGE SANTOS</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>WEBO</t>
-  </si>
-  <si>
-    <t>OSCAR RIOS</t>
-  </si>
-  <si>
-    <t>JANETH</t>
-  </si>
-  <si>
-    <t>IMELDA</t>
-  </si>
-  <si>
-    <t>GERARDO MONTEMAYOR</t>
-  </si>
-  <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>FINADO</t>
-  </si>
-  <si>
-    <t>RAMON ALVARADO</t>
-  </si>
-  <si>
-    <t>KARINA MORENO</t>
-  </si>
-  <si>
-    <t>FEDEX</t>
+    <t>ERICKA</t>
   </si>
   <si>
     <t>YOLANDA</t>
-  </si>
-  <si>
-    <t>JAVIER GARCIA</t>
-  </si>
-  <si>
-    <t>ANGEL VILLARREAL</t>
-  </si>
-  <si>
-    <t>JORGE OMAR</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL GUAJARDO</t>
-  </si>
-  <si>
-    <t>GOYO</t>
-  </si>
-  <si>
-    <t>RAMON AYALA</t>
-  </si>
-  <si>
-    <t>LAURA PAULA</t>
-  </si>
-  <si>
-    <t>ELENA DE LA ROSA</t>
-  </si>
-  <si>
-    <t>MARIANELA ESCOBEDO VILLARREAL</t>
-  </si>
-  <si>
-    <t>BAJA</t>
-  </si>
-  <si>
-    <t>MAURICIO FARAH</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL FERRIGNO FIGUEROA</t>
-  </si>
-  <si>
-    <t>NIDIA</t>
-  </si>
-  <si>
-    <t>INDDEFINIDO</t>
-  </si>
-  <si>
-    <t>GREGORIO</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>FREDY ZAVALA</t>
-  </si>
-  <si>
-    <t>SUSANA GONZALEZ</t>
-  </si>
-  <si>
-    <t>VIRGIA BALTA</t>
-  </si>
-  <si>
-    <t>ERICKA</t>
   </si>
 </sst>
 </file>
@@ -409,8 +400,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -422,8 +415,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
-        <bgColor rgb="FF8064A2"/>
+        <fgColor theme="7"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,7 +432,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF4F81BD"/>
+        <color theme="4"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -448,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -456,8 +449,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,15 +783,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A124"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1396,26 +1390,8 @@
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/assets/subenlaces.xlsx
+++ b/assets/subenlaces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,177 +19,537 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>SIN ENLACE</t>
-  </si>
-  <si>
-    <t>BALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BALTA</t>
-  </si>
-  <si>
-    <t>VICO</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>XAVIER</t>
-  </si>
-  <si>
-    <t>EDUARDO CAMPOS</t>
-  </si>
-  <si>
-    <t>CABALLERO</t>
-  </si>
-  <si>
-    <t>LIDIA</t>
-  </si>
-  <si>
-    <t>ANDREA VERASTEGUI</t>
-  </si>
-  <si>
-    <t>PONCHO</t>
-  </si>
-  <si>
-    <t>FREDDY</t>
-  </si>
-  <si>
-    <t>ISMAEL</t>
-  </si>
-  <si>
-    <t>CARLOS CHAVEZ</t>
-  </si>
-  <si>
-    <t>Gregorio</t>
-  </si>
-  <si>
-    <t>TONY</t>
-  </si>
-  <si>
-    <t>CHANO</t>
-  </si>
-  <si>
-    <t>PRESIDENTE</t>
-  </si>
-  <si>
-    <t>WEBO</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>ROBLEDO</t>
-  </si>
-  <si>
-    <t>FELIX</t>
-  </si>
-  <si>
-    <t>TOMAS</t>
-  </si>
-  <si>
-    <t>MARTEL</t>
-  </si>
-  <si>
-    <t>Rafa</t>
-  </si>
-  <si>
-    <t>ANDREA VERASTEGUI Y LUIS</t>
-  </si>
-  <si>
-    <t>Valdemar</t>
-  </si>
-  <si>
-    <t>RUBEN LEAL</t>
-  </si>
-  <si>
-    <t>Josue</t>
-  </si>
-  <si>
-    <t>Ramon Ayala</t>
-  </si>
-  <si>
-    <t>RICARDO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GOYO</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>ISRAEL PIÑA</t>
-  </si>
-  <si>
-    <t>MARTHA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>ADALBERTO MADERO</t>
   </si>
   <si>
     <t>ADRIAN VILLARREAL</t>
   </si>
   <si>
-    <t>OSCAR FLORES</t>
-  </si>
-  <si>
-    <t>THELMA</t>
-  </si>
-  <si>
-    <t>OBED MEZA</t>
-  </si>
-  <si>
-    <t>CARMEN PEÑA</t>
-  </si>
-  <si>
-    <t>ZAMORA</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS RUIZ</t>
+    <t>ALBERTO CORONADO</t>
+  </si>
+  <si>
+    <t>ALE HINOJOSA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA SADA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO DEL BOSQUE</t>
+  </si>
+  <si>
+    <t>ALEJANDRO SEFERINO</t>
+  </si>
+  <si>
+    <t>ALEX CABALLERO</t>
+  </si>
+  <si>
+    <t>ALEX VILLARREAL</t>
+  </si>
+  <si>
+    <t>ALIDA BONIFAZ</t>
+  </si>
+  <si>
+    <t>ALVARO SUAREZ</t>
+  </si>
+  <si>
+    <t>AMERICO</t>
+  </si>
+  <si>
+    <t>ANA MARIA SCHWARTZ</t>
+  </si>
+  <si>
+    <t>ANGIE MARROQUIN</t>
+  </si>
+  <si>
+    <t>ANIBAL</t>
+  </si>
+  <si>
+    <t>ANITA CANALES</t>
+  </si>
+  <si>
+    <t>ANTONIO ADOLFO PEDRAJA</t>
+  </si>
+  <si>
+    <t>ANTONIO ELOSUA</t>
+  </si>
+  <si>
+    <t>INDEFINIDO</t>
+  </si>
+  <si>
+    <t>AVELINA</t>
+  </si>
+  <si>
+    <t>BALDO</t>
+  </si>
+  <si>
+    <t>BERE</t>
+  </si>
+  <si>
+    <t>BERTHA QUIJANO</t>
+  </si>
+  <si>
+    <t>BETTY ALAMILLO</t>
+  </si>
+  <si>
+    <t>BOBBY</t>
+  </si>
+  <si>
+    <t>BOMBERO</t>
+  </si>
+  <si>
+    <t>BRENDA MARTINEZ</t>
+  </si>
+  <si>
+    <t>CARLOS GARZA</t>
+  </si>
+  <si>
+    <t>CARLOS VILLARREAL</t>
+  </si>
+  <si>
+    <t>CARMELO</t>
+  </si>
+  <si>
+    <t>CASTUERA</t>
+  </si>
+  <si>
+    <t>CESAR FERNANDEZ</t>
+  </si>
+  <si>
+    <t>CESAR MASCAREÑAS</t>
+  </si>
+  <si>
+    <t>CHAYO GASCA</t>
+  </si>
+  <si>
+    <t>CLAUDETTE</t>
+  </si>
+  <si>
+    <t>CLUADIA PADILLA</t>
+  </si>
+  <si>
+    <t>CONSUELO ARGUELLES</t>
+  </si>
+  <si>
+    <t>DAMIAN CUEVAS</t>
+  </si>
+  <si>
+    <t>DANY SAUCEDO</t>
+  </si>
+  <si>
+    <t>DAVID ESPINOSA</t>
+  </si>
+  <si>
+    <t>DAVID FARAH</t>
+  </si>
+  <si>
+    <t>DIANA JAIME</t>
+  </si>
+  <si>
+    <t>DOCTOR</t>
+  </si>
+  <si>
+    <t>DOMINGO VALDES</t>
+  </si>
+  <si>
+    <t>DOMITILA</t>
+  </si>
+  <si>
+    <t>DON JULIAN</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>ENRIQUE BURGUETE</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>ESTHER BELMARES</t>
+  </si>
+  <si>
+    <t>EUGENIO BUENO</t>
+  </si>
+  <si>
+    <t>EUNICE</t>
+  </si>
+  <si>
+    <t>FANNY</t>
+  </si>
+  <si>
+    <t>FARAH</t>
+  </si>
+  <si>
+    <t>FAUSTINO</t>
+  </si>
+  <si>
+    <t>FEDERICO</t>
+  </si>
+  <si>
+    <t>FEDERICO CRESPO</t>
+  </si>
+  <si>
+    <t>FERNANDO  MARGAIN</t>
+  </si>
+  <si>
+    <t>FERNANDO CANALES</t>
+  </si>
+  <si>
+    <t>FERNANDO ELIZONDO</t>
+  </si>
+  <si>
+    <t>FERNANDO MARGÁIN</t>
+  </si>
+  <si>
+    <t>FERNANDO TREVÑO GARZA</t>
+  </si>
+  <si>
+    <t>FERNANDO TRONCOSO</t>
+  </si>
+  <si>
+    <t>FINA</t>
+  </si>
+  <si>
+    <t>FINADO</t>
+  </si>
+  <si>
+    <t>GABY CONDE</t>
+  </si>
+  <si>
+    <t>GATICA</t>
+  </si>
+  <si>
+    <t>GEORGINA</t>
+  </si>
+  <si>
+    <t>GERARDO CANALES</t>
+  </si>
+  <si>
+    <t>GILDA</t>
+  </si>
+  <si>
+    <t>GRACIELA</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
   </si>
   <si>
     <t>HERNAN SALINAS</t>
   </si>
   <si>
-    <t>Elvin Torres</t>
-  </si>
-  <si>
-    <t>KARINA BARRON</t>
-  </si>
-  <si>
-    <t>Javi Rodriguez</t>
-  </si>
-  <si>
-    <t>ISIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO HERNANDEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBLEDO </t>
-  </si>
-  <si>
-    <t>VIRGINIA GARZA</t>
-  </si>
-  <si>
-    <t>BOTELLO</t>
-  </si>
-  <si>
-    <t>AFRICA</t>
-  </si>
-  <si>
-    <t>MIRIAM</t>
-  </si>
-  <si>
-    <t>Erika</t>
+    <t>HIRAM DE LEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMERO </t>
+  </si>
+  <si>
+    <t>HUGO PRESAS</t>
+  </si>
+  <si>
+    <t>HUMBERTO TREVIÑO</t>
+  </si>
+  <si>
+    <t>HUMBERTO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>IGNACIO MARTINEZ</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>JESSICA/ZAMIRA</t>
+  </si>
+  <si>
+    <t>JESÚS MARIO GARZA GUEVARA</t>
+  </si>
+  <si>
+    <t>JORGE GAYTÁN</t>
+  </si>
+  <si>
+    <t>JORGE RIOS</t>
+  </si>
+  <si>
+    <t>JORGE ZUBIETA</t>
+  </si>
+  <si>
+    <t>JOSE DELGADILLO</t>
+  </si>
+  <si>
+    <t>JOSE JUAN</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>JUAN CONDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN CONDE  </t>
+  </si>
+  <si>
+    <t>JUAN GUERRERO</t>
+  </si>
+  <si>
+    <t>JUANITA CERDA</t>
+  </si>
+  <si>
+    <t>KARINA MORENO</t>
+  </si>
+  <si>
+    <t>KIKE</t>
+  </si>
+  <si>
+    <t>LALO SIERRA</t>
+  </si>
+  <si>
+    <t>LAURA TRISTAN</t>
+  </si>
+  <si>
+    <t>LEONARDA</t>
+  </si>
+  <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
+    <t>LETY</t>
+  </si>
+  <si>
+    <t>LORENA CANALES</t>
+  </si>
+  <si>
+    <t>LUIS DAVID ORTIZ</t>
+  </si>
+  <si>
+    <t>LUIS DAVID ORTIZ / JAVIER LEAL</t>
+  </si>
+  <si>
+    <t>LUPITA ALVAREZ</t>
+  </si>
+  <si>
+    <t>LUPITA GRANADOS</t>
+  </si>
+  <si>
+    <t>LUZ ELENA</t>
+  </si>
+  <si>
+    <t>LUZMA</t>
+  </si>
+  <si>
+    <t>MAGDA BAUTISTA</t>
+  </si>
+  <si>
+    <t>MAGDA GALVAN</t>
+  </si>
+  <si>
+    <t>MAGDA GALVAN 2</t>
+  </si>
+  <si>
+    <t>MARCELA VALDEZ</t>
+  </si>
+  <si>
+    <t>MARCELA VALDEZ / LALO SIERRA</t>
+  </si>
+  <si>
+    <t>MARCELO MARTINEZ</t>
+  </si>
+  <si>
+    <t>MARGAIN</t>
+  </si>
+  <si>
+    <t>MARIANA ZUÑIGA</t>
+  </si>
+  <si>
+    <t>MARIANELA</t>
+  </si>
+  <si>
+    <t>MARIANELA: MARILÚ LEVY</t>
+  </si>
+  <si>
+    <t>MARIANGELA</t>
+  </si>
+  <si>
+    <t>MARICRUZ</t>
+  </si>
+  <si>
+    <t>MARISOL GZZ HINOJOSA</t>
+  </si>
+  <si>
+    <t>MARTHA GARCIA MULLER</t>
+  </si>
+  <si>
+    <t>MARTHA TORRES ALVAREZ</t>
+  </si>
+  <si>
+    <t>MAURICIO FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAURO MOLANO</t>
+  </si>
+  <si>
+    <t>MAYRA LUGO</t>
+  </si>
+  <si>
+    <t>MAYRA VAZQUEZ</t>
+  </si>
+  <si>
+    <t>MAYRA VAZQUEZ 2</t>
+  </si>
+  <si>
+    <t>MECHE KONTOS</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MENDIETA CASCO</t>
+  </si>
+  <si>
+    <t>MIGUEL AVILA</t>
+  </si>
+  <si>
+    <t>MIGUEL FERRIGNO</t>
+  </si>
+  <si>
+    <t>MIKE RAMOS</t>
+  </si>
+  <si>
+    <t>MIRIAM ARROYO</t>
+  </si>
+  <si>
+    <t>MIRIAM MAYRA</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>OFELIA CABRERA MARTINEZ</t>
+  </si>
+  <si>
+    <t>OMAR GRACIA</t>
+  </si>
+  <si>
+    <t>OREL</t>
+  </si>
+  <si>
+    <t>PACO FLORES</t>
+  </si>
+  <si>
+    <t>PANCHIS</t>
+  </si>
+  <si>
+    <t>PANCHITO</t>
+  </si>
+  <si>
+    <t>PATO RIVERA</t>
+  </si>
+  <si>
+    <t>PATY SEPULVEDA</t>
+  </si>
+  <si>
+    <t>PEPE DAVALOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPE ELIZONDO </t>
+  </si>
+  <si>
+    <t>PEPE GARZA</t>
+  </si>
+  <si>
+    <t>PIOJO</t>
+  </si>
+  <si>
+    <t>POMPILIA</t>
+  </si>
+  <si>
+    <t>POPER</t>
+  </si>
+  <si>
+    <t>QUIROGA</t>
+  </si>
+  <si>
+    <t>RAUL CERNA</t>
+  </si>
+  <si>
+    <t>RAUL GRACIA</t>
+  </si>
+  <si>
+    <t>RAUL MENDOZA</t>
+  </si>
+  <si>
+    <t>RAYMUNDO</t>
+  </si>
+  <si>
+    <t>REBECA CLOUTHIER</t>
+  </si>
+  <si>
+    <t>RICARDO RODRIGUEZ: P.C.</t>
+  </si>
+  <si>
+    <t>ROB VILLARREAL</t>
+  </si>
+  <si>
+    <t>ROBERTO CAMPOS GUERRA</t>
+  </si>
+  <si>
+    <t>ROBY LOZANO</t>
+  </si>
+  <si>
+    <t>RODO MENDOZA</t>
+  </si>
+  <si>
+    <t>ROSALINDA</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>SONIA DIAZ</t>
+  </si>
+  <si>
+    <t>SUSARREY</t>
+  </si>
+  <si>
+    <t>SUSY</t>
+  </si>
+  <si>
+    <t>TAYLOR</t>
+  </si>
+  <si>
+    <t>TEODULO</t>
+  </si>
+  <si>
+    <t>TERE MORALES</t>
+  </si>
+  <si>
+    <t>UGO RUIZ</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>VERO MAIZ</t>
+  </si>
+  <si>
+    <t>WALO</t>
+  </si>
+  <si>
+    <t>YESENIA</t>
+  </si>
+  <si>
+    <t>JESUS DIAZ</t>
+  </si>
+  <si>
+    <t>Folio</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -205,12 +565,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -222,22 +588,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -247,8 +623,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,300 +960,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A58"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>3720</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>3721</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>3722</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3723</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>3724</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>3725</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>3726</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>3727</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>3728</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>3729</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>3730</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>3731</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>3732</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>3733</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>3734</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>3735</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>3736</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>3737</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>3738</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>3739</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>3740</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>3741</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>3742</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>3743</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>3744</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>3745</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>3746</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>3747</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>3748</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>3749</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>3750</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>3751</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>3752</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>3753</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>3754</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>3755</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>3756</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>3757</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>3758</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>3759</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>3760</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>3761</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>3762</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>3763</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>3764</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>3765</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>3766</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>3767</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>3768</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>3769</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>3770</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>3771</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>3772</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>3773</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>3774</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>3775</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>3776</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>3777</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>3778</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>3779</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>3780</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>3781</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>3782</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>3783</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>3784</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>3785</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>3786</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>3787</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>3788</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>3789</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>3790</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>3791</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>3792</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>3793</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>3794</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>3795</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>3796</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>3797</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>3798</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>3799</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>3800</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>3801</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>3802</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>3803</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>3804</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>3805</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>3806</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>3807</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>3808</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>3809</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>3810</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>3811</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>3812</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>3813</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>3814</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>3815</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>3816</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>3817</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>3818</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>3819</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>3820</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>3821</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>3822</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>3823</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>3824</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>3825</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>3826</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>3827</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>3828</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>3829</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>3830</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>3831</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>3832</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>3833</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>3834</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>3835</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>3836</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>3837</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>3838</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>3839</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>3840</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>3841</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>3842</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>3843</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>3844</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>3845</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>3846</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>3847</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>3848</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>3849</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>3850</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>3851</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>3852</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>3853</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>3854</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>3855</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>3856</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>3857</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>3858</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>3859</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>3860</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>3861</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>3862</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>3863</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>3864</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>3865</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>3866</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>3867</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>3868</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>3869</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>3870</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>3871</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>3872</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>3873</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>3874</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>3875</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>3876</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>3877</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>3878</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>3879</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>3880</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>3881</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>3882</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>3883</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>3884</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>3885</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>3886</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>3887</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>3888</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>3889</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>3890</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>3891</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>3892</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>3893</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>3894</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
